--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1503109.598286874</v>
+        <v>-1505810.467004272</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118.7118252564412</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>133.4582858480074</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,16 +817,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>93.89254046638185</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>47.65883542934953</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>178.3563001237733</v>
+        <v>254.882137899782</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>127.0592425191972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>111.5767559267674</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>288.0660770404925</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1184,19 +1184,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>113.2913457628586</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>14.29880131109821</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>75.36795338515462</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>125.2700607443034</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.522998336592</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>25.26322697488337</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>13.94435783112433</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.7072979240948</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652652</v>
+        <v>56.98118882652662</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3199,7 +3199,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002299</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541841</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.635933406614</v>
+        <v>597.0390406990323</v>
       </c>
       <c r="C2" t="n">
-        <v>1606.635933406614</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4361,19 +4361,19 @@
         <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.012626270159</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W2" t="n">
-        <v>2100.012626270159</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X2" t="n">
-        <v>1726.546868009079</v>
+        <v>1373.778212738966</v>
       </c>
       <c r="Y2" t="n">
-        <v>1726.546868009079</v>
+        <v>983.638880763154</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>551.6025748766954</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>846.306131908167</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897737</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.9138669598626</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>292.9776840319557</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.34446183165</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X4" t="n">
-        <v>864.3549109336325</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.5623317901023</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>909.233203697441</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C5" t="n">
-        <v>540.2706867570292</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D5" t="n">
-        <v>540.2706867570292</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570292</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4565,16 +4565,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847235</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>1852.996172847235</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X5" t="n">
-        <v>1479.530414586155</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y5" t="n">
-        <v>1089.391082610343</v>
+        <v>1587.556048344953</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,40 +4632,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310615</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625333</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009994</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.15405360694</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783102</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>451.9049743189132</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="C7" t="n">
-        <v>451.9049743189132</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="D7" t="n">
-        <v>451.9049743189132</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386097</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1421.158919724658</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.349301773071</v>
+        <v>1132.040582228495</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671841</v>
+        <v>877.3560940226084</v>
       </c>
       <c r="W7" t="n">
-        <v>580.2476435302235</v>
+        <v>587.9389239856478</v>
       </c>
       <c r="X7" t="n">
-        <v>580.2476435302235</v>
+        <v>587.9389239856478</v>
       </c>
       <c r="Y7" t="n">
-        <v>580.2476435302235</v>
+        <v>367.1463448421176</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1033.854129889792</v>
+        <v>1117.969728759938</v>
       </c>
       <c r="C8" t="n">
-        <v>664.8916129493803</v>
+        <v>1117.969728759938</v>
       </c>
       <c r="D8" t="n">
-        <v>373.9157775549434</v>
+        <v>759.7040301531877</v>
       </c>
       <c r="E8" t="n">
         <v>373.9157775549434</v>
@@ -4802,16 +4802,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4832,22 +4832,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2184.059060190805</v>
+        <v>1860.877716005864</v>
       </c>
       <c r="W8" t="n">
-        <v>2184.059060190805</v>
+        <v>1508.10906073575</v>
       </c>
       <c r="X8" t="n">
-        <v>1810.593301929725</v>
+        <v>1508.10906073575</v>
       </c>
       <c r="Y8" t="n">
-        <v>1420.453969953914</v>
+        <v>1117.969728759938</v>
       </c>
     </row>
     <row r="9">
@@ -4872,37 +4872,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143501</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458217</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>383.7931243196342</v>
+        <v>494.0245808582381</v>
       </c>
       <c r="C10" t="n">
-        <v>369.3498906720603</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="D10" t="n">
-        <v>219.2332512597245</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.115628253778</v>
+        <v>1038.126239101086</v>
       </c>
       <c r="V10" t="n">
-        <v>793.4311400478913</v>
+        <v>783.4417508951988</v>
       </c>
       <c r="W10" t="n">
-        <v>793.4311400478913</v>
+        <v>494.0245808582381</v>
       </c>
       <c r="X10" t="n">
-        <v>565.4415891498739</v>
+        <v>494.0245808582381</v>
       </c>
       <c r="Y10" t="n">
-        <v>565.4415891498739</v>
+        <v>494.0245808582381</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5042,7 +5042,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5054,10 +5054,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>747.3584617859333</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>597.2418223735975</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>449.3287287912044</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>302.438781293294</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138402</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>835.5837926935549</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C16" t="n">
-        <v>666.647609765648</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
-        <v>516.5309703533122</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>368.6178767709191</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>368.6178767709191</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>201.4217774857991</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038334</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602303</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.014387565342</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1238.024836667325</v>
+        <v>1130.19898568143</v>
       </c>
       <c r="Y16" t="n">
-        <v>1017.232257523795</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5716,7 +5716,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5753,7 +5753,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1550.665004989558</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5887,22 +5887,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,19 +6066,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>119.290296770379</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190825</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.2179484367892</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>484.2179484367892</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.2179484367892</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.0218491516692</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6370,13 +6370,13 @@
         <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6610,13 +6610,13 @@
         <v>411.2214559580121</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345484</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384027</v>
+        <v>151.3734194384028</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115002</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,28 +6880,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311316</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7315,13 +7315,13 @@
         <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,16 +7360,16 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,7 +7731,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,28 +8058,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>255.842170046095</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199.751631150406</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,22 +8301,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>186.4490126143848</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>98.24448441976853</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780647</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>280.1079373569283</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>264.0220164070394</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>231.8146059230002</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>200.9907192867925</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>295.8063244776401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>40.25407754796545</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>115.0314858713405</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>211.7652975579128</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0.587414922129085</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116044.8438455267</v>
+        <v>116044.8438455268</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="D2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="F2" t="n">
         <v>141250.6549457511</v>
@@ -26341,13 +26341,13 @@
         <v>143682.3097262496</v>
       </c>
       <c r="L2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="M2" t="n">
         <v>143682.3097262496</v>
       </c>
-      <c r="M2" t="n">
-        <v>143682.3097262497</v>
-      </c>
       <c r="N2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262496</v>
@@ -26390,7 +26390,7 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363178</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41769.40924959297</v>
+        <v>41769.40924959292</v>
       </c>
       <c r="C4" t="n">
+        <v>131909.726831625</v>
+      </c>
+      <c r="D4" t="n">
         <v>131909.7268316249</v>
       </c>
-      <c r="D4" t="n">
-        <v>131909.726831625</v>
-      </c>
       <c r="E4" t="n">
-        <v>6897.424496707372</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707376</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707385</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="I4" t="n">
         <v>6897.424496707372</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707376</v>
       </c>
       <c r="K4" t="n">
-        <v>14888.2837598009</v>
+        <v>14888.28375980085</v>
       </c>
       <c r="L4" t="n">
-        <v>14888.2837598009</v>
+        <v>14888.28375980084</v>
       </c>
       <c r="M4" t="n">
+        <v>14888.28375980084</v>
+      </c>
+      <c r="N4" t="n">
         <v>14888.28375980082</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14888.28375980084</v>
       </c>
       <c r="O4" t="n">
         <v>14888.28375980083</v>
       </c>
       <c r="P4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980082</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1133414.121419831</v>
+        <v>-1133808.942360984</v>
       </c>
       <c r="C6" t="n">
-        <v>-81165.18954522008</v>
+        <v>-81165.18954522014</v>
       </c>
       <c r="D6" t="n">
-        <v>-81165.18954522006</v>
+        <v>-81165.18954522001</v>
       </c>
       <c r="E6" t="n">
-        <v>-474254.7409994091</v>
+        <v>-474289.4789248448</v>
       </c>
       <c r="F6" t="n">
-        <v>33230.7006251366</v>
+        <v>33195.96269970093</v>
       </c>
       <c r="G6" t="n">
-        <v>33230.7006251366</v>
+        <v>33195.96269970093</v>
       </c>
       <c r="H6" t="n">
-        <v>33230.70062513663</v>
+        <v>33195.96269970096</v>
       </c>
       <c r="I6" t="n">
-        <v>33230.70062513663</v>
+        <v>33195.9626997009</v>
       </c>
       <c r="J6" t="n">
-        <v>-134374.4771848459</v>
+        <v>-134409.2151102816</v>
       </c>
       <c r="K6" t="n">
-        <v>6202.192118901541</v>
+        <v>6202.192118901585</v>
       </c>
       <c r="L6" t="n">
-        <v>25629.91011253333</v>
+        <v>25629.91011253343</v>
       </c>
       <c r="M6" t="n">
         <v>-106977.3836163933</v>
       </c>
       <c r="N6" t="n">
-        <v>25629.91011253343</v>
+        <v>25629.91011253341</v>
       </c>
       <c r="O6" t="n">
-        <v>25629.91011253337</v>
+        <v>25629.9101125334</v>
       </c>
       <c r="P6" t="n">
         <v>6202.192118901658</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203975</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175394</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>153.6923223338905</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>90.43161417841344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>54.72293255183051</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>170.9258179227453</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>204.3775415397073</v>
+        <v>127.8517037636985</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.77273766274011</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>109.1719400704445</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>66.61696458019043</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>214.4609127072763</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>152.9480197875296</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>210.859200736046</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>454.1257695262137</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>165.2255134509763</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,16 +32318,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>491.597732526532</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>152.5685698206132</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>220.7280629601522</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>211.0222436375122</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33904,10 +33904,10 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>442.4296662895798</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>449.4311602739384</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>553.3803448964254</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>489.4415840126424</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215495</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>615.5326193530514</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>311.9917356041954</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409634</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,16 +35966,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>349.0014880820875</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,10 +37552,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38187,13 +38187,13 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
